--- a/biology/Biologie cellulaire et moléculaire/Pore_nucléaire/Pore_nucléaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pore_nucléaire/Pore_nucléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pore_nucl%C3%A9aire</t>
+          <t>Pore_nucléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pores nucléaires sont de grands complexes protéiques (poids moléculaire estimé à 125 000 kDa) traversant l'enveloppe nucléaire, qui est une double membrane entourant le noyau des cellules eucaryotes. Les pores nucléaires permettent les échanges entre le noyau et le cytoplasme. Il existe environ 100 protéines de types différents appelées nucléoporines qui entrent dans la composition du pore. Il y a entre 2000 et 6000 pores par noyaux (1/3 de la surface). Les pores nucléaires ont été découverts par la chercheuse française Valérie Doye au début des années 1990, découverte qui lui a valu la médaille d'argent du CNRS.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pore_nucl%C3%A9aire</t>
+          <t>Pore_nucléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure du pore nucléaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pore est constitué de deux anneaux (un sur la face nucléaire, l'autre sur la face cytoplasmique) de symétrie radiale orthogonale. Le diamètre extérieur du pore est de 150 nm environ. Le diamètre intérieur (c’est-à-dire l'ouverture proprement dite) est d'environ 45 nm. Sa face cytoplasmique comporte 8 fibrilles de 50 nm de long s'étendant vers le cytoplasme tandis que la face nucléaire comporte également des fibrilles qui se rejoignent pour former une structure en forme de panier de 100 nm de hauteur.
 Le complexe formant le pore nucléaire (nuclear pore complex, NPC) présente une symétrie d'ordre 8 : les deux anneaux présentent 8 rayons disposés autour du tunnel central.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pore_nucl%C3%A9aire</t>
+          <t>Pore_nucléaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Seule la moitié des protéines qui constituent les pores nucléaires sont connues. On les appelle nucléoporines.
 Certaines d'entre elles ont des sites de fixation à l'ADN ou à l'ARN, ce qui facilite la régulation du transport.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pore_nucl%C3%A9aire</t>
+          <t>Pore_nucléaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pores nucléaires permettent les échanges entre le noyau et le cytoplasme dans les deux sens (importation et exportation), phénomène appelé translocation.
 Des mesures ont été effectuées sur la lignée cellulaire HeLa et il a été remarqué que pour permettre la division de la cellule lors de la mitose, le noyau doit importer 500 000 protéines ribosomiques pour pouvoir exporter 14 000 sous-unités ribosomiques.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pore_nucl%C3%A9aire</t>
+          <t>Pore_nucléaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Types de transports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transport passif : ions, acides aminés, oses, protéines légères, etc.
 Les molécules dont le poids moléculaire est inférieur à 40 à 50 kDa peuvent passer dans le noyau en passant par la même voie que les ions (sur les côtés du canal central) Plus une molécule est grande, plus sa vitesse de passage est faible : une molécule de 20 kDa passe en 2 à 3 minutes alors qu’une de 40 kDa met 20 à 30 minutes.
